--- a/dev/物品添加&修改.xlsx
+++ b/dev/物品添加&修改.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>序号</t>
   </si>
@@ -87,22 +87,13 @@
     <t>Nickel Sheet</t>
   </si>
   <si>
-    <t>crushed_raw_nickel</t>
-  </si>
-  <si>
-    <t>粉碎镍矿石</t>
-  </si>
-  <si>
-    <t>Crushed Raw Nickel</t>
-  </si>
-  <si>
     <t>raw_nickel_block</t>
   </si>
   <si>
     <t>粗镍块</t>
   </si>
   <si>
-    <t>Raw Nickel Block</t>
+    <t>Block Of Raw Nickel</t>
   </si>
   <si>
     <t>nickel_block</t>
@@ -111,7 +102,7 @@
     <t>镍块</t>
   </si>
   <si>
-    <t>Nickel Block</t>
+    <t>Block Of Nickel</t>
   </si>
   <si>
     <t>andesite_alloy_sheet</t>
@@ -121,15 +112,6 @@
   </si>
   <si>
     <t>Andesite Alloy Sheet</t>
-  </si>
-  <si>
-    <t>andesite_alloy_block</t>
-  </si>
-  <si>
-    <t>安山合金块</t>
-  </si>
-  <si>
-    <t>Andesite Alloy Block</t>
   </si>
   <si>
     <t>nickel_rich_laterite</t>
@@ -1093,10 +1075,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1255,34 +1237,6 @@
       </c>
       <c r="D10" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/dev/物品添加&修改.xlsx
+++ b/dev/物品添加&修改.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="15015"/>
+    <workbookView windowWidth="29520" windowHeight="14055"/>
   </bookViews>
   <sheets>
     <sheet name="新增物品" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>序号</t>
   </si>
@@ -105,6 +105,15 @@
     <t>Block Of Nickel</t>
   </si>
   <si>
+    <t>nickel_nugget</t>
+  </si>
+  <si>
+    <t>镍粒</t>
+  </si>
+  <si>
+    <t>Nickel Nugget</t>
+  </si>
+  <si>
     <t>andesite_alloy_sheet</t>
   </si>
   <si>
@@ -130,6 +139,69 @@
   </si>
   <si>
     <t>Laterite</t>
+  </si>
+  <si>
+    <t>aluminum_ingot</t>
+  </si>
+  <si>
+    <t>铝锭</t>
+  </si>
+  <si>
+    <t>Aluminum Ingot</t>
+  </si>
+  <si>
+    <t>aluminum_sheet</t>
+  </si>
+  <si>
+    <t>铝板</t>
+  </si>
+  <si>
+    <t>Aluminum Sheet</t>
+  </si>
+  <si>
+    <t>aluminum_block</t>
+  </si>
+  <si>
+    <t>铝块</t>
+  </si>
+  <si>
+    <t>Block Of Aluminum</t>
+  </si>
+  <si>
+    <t>aluminum_nugget</t>
+  </si>
+  <si>
+    <t>铝粒</t>
+  </si>
+  <si>
+    <t>Aluminum Nugget</t>
+  </si>
+  <si>
+    <t>andesite_hammer</t>
+  </si>
+  <si>
+    <t>安山锤</t>
+  </si>
+  <si>
+    <t>Andesite Hammer</t>
+  </si>
+  <si>
+    <t>brass_hammer</t>
+  </si>
+  <si>
+    <t>黄铜锤</t>
+  </si>
+  <si>
+    <t>Brass Hammer</t>
+  </si>
+  <si>
+    <t>brass_anvil</t>
+  </si>
+  <si>
+    <t>黄铜砧</t>
+  </si>
+  <si>
+    <t>Brass Anvil</t>
   </si>
 </sst>
 </file>
@@ -1075,10 +1147,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1237,6 +1309,118 @@
       </c>
       <c r="D10" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
